--- a/biology/Écologie/Espèce_introduite/Espèce_introduite.xlsx
+++ b/biology/Écologie/Espèce_introduite/Espèce_introduite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ce_introduite</t>
+          <t>Espèce_introduite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On qualifie d'espèce introduite une population  identifiée/isolée d'une espèce donnée -- qu'elle soit présente ou maintenue présente artificiellement (espèces domestiquées, espèces « adventives  ») en cours de naturalisation ou déjà naturalisée -- dans un territoire donnée, considérant qu'elle n'est pas une espèce indigène dudit territoire mais y a été importée par une intervention humaine (délibérée ou non).
-Dans le cas où le taxon est d'introduction récente et est nuisible à un écosystème donné, on parle d'espèce exotique envahissante. Il s'agit d'un cas particulier d'espèce allochtone « qui qualifie une espèce, une sous-espèce ou une entité d'un niveau taxonomique inférieur se trouvant à l'extérieur de son aire de répartition naturelle ou de son aire de dispersion potentielle » (intervention ou pas de l'homme)[1].
-Le Réseau d’information européen sur les espèces exotiques (European Alien Species Information Network - EASIN)[2], lancé en 2012 par la Commission Européenne, recense plus de 14 000 espèces exotiques présentes en Europe, couvrant tous types de taxons et d'habitats[3].
+Dans le cas où le taxon est d'introduction récente et est nuisible à un écosystème donné, on parle d'espèce exotique envahissante. Il s'agit d'un cas particulier d'espèce allochtone « qui qualifie une espèce, une sous-espèce ou une entité d'un niveau taxonomique inférieur se trouvant à l'extérieur de son aire de répartition naturelle ou de son aire de dispersion potentielle » (intervention ou pas de l'homme).
+Le Réseau d’information européen sur les espèces exotiques (European Alien Species Information Network - EASIN), lancé en 2012 par la Commission Européenne, recense plus de 14 000 espèces exotiques présentes en Europe, couvrant tous types de taxons et d'habitats.
 </t>
         </is>
       </c>
